--- a/docs/VerifPlans/Simulation/privileged_spec/CV32E40X_Counters.xlsx
+++ b/docs/VerifPlans/Simulation/privileged_spec/CV32E40X_Counters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ropeders\Documents\counters_vplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71BF789-0921-478E-903E-7B26C669A644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3740E1-6642-42F3-8BB0-1D243EAB0791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="127">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -448,6 +448,21 @@
   </si>
   <si>
     <t>Updating retirement-related counters must have happened within the time the instruction is considered retired (i.e. must be visible on the rvfi retirement)</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.counters_covg.counters_cg.x_check_mcycle</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.counters_covg.counters_cg.x_check_minstret</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.counters_covg.cg_idx_wrapper_*.mhpm_cg.x_check_mhpm</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.counters_covg.cg_idx_wrapper_*.inhibit_mix_cg.x_check_*</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.counters_covg.counters_cg.x_minstret_in_dbg</t>
   </si>
 </sst>
 </file>
@@ -580,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -642,6 +657,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,27 +1073,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="72" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="54.5703125" style="1" customWidth="1"/>
     <col min="11" max="1024" width="17" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="45">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="30">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1104,14 +1125,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1">
+      <c r="A2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -1129,13 +1150,15 @@
       <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="24"/>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="8" t="s">
         <v>57</v>
       </c>
@@ -1151,13 +1174,15 @@
       <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="13" t="s">
         <v>70</v>
       </c>
@@ -1173,13 +1198,15 @@
       <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="14" t="s">
         <v>112</v>
       </c>
@@ -1195,16 +1222,18 @@
       <c r="H5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="23" t="s">
+        <v>125</v>
+      </c>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="24" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="28" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -1219,14 +1248,16 @@
       <c r="H6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="26"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="10" t="s">
         <v>55</v>
       </c>
@@ -1239,16 +1270,16 @@
       <c r="H7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="24" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -1263,14 +1294,16 @@
       <c r="H8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="14" t="s">
         <v>117</v>
       </c>
@@ -1283,12 +1316,12 @@
       <c r="H9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="165">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="9" t="s">
         <v>23</v>
       </c>
@@ -1313,12 +1346,12 @@
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="24" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="27" t="s">
         <v>118</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -1337,10 +1370,10 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="14" t="s">
         <v>74</v>
       </c>
@@ -1357,10 +1390,10 @@
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" ht="90">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -1387,8 +1420,8 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="18" t="s">
         <v>76</v>
       </c>
@@ -1411,8 +1444,8 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="18" t="s">
         <v>37</v>
       </c>
@@ -1435,8 +1468,8 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="18" t="s">
         <v>31</v>
       </c>
@@ -1459,8 +1492,8 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="18" t="s">
         <v>33</v>
       </c>
@@ -1483,8 +1516,8 @@
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="18" t="s">
         <v>35</v>
       </c>
@@ -1507,8 +1540,8 @@
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="18" t="s">
         <v>77</v>
       </c>
@@ -1531,8 +1564,8 @@
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="18" t="s">
         <v>78</v>
       </c>
@@ -1555,8 +1588,8 @@
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="18" t="s">
         <v>79</v>
       </c>
@@ -1579,8 +1612,8 @@
       <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="18" t="s">
         <v>80</v>
       </c>
@@ -1603,8 +1636,8 @@
       <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="18" t="s">
         <v>81</v>
       </c>
@@ -1627,8 +1660,8 @@
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="18" t="s">
         <v>85</v>
       </c>
@@ -1651,8 +1684,8 @@
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="18" t="s">
         <v>86</v>
       </c>
@@ -1675,8 +1708,8 @@
       <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="18" t="s">
         <v>87</v>
       </c>
@@ -1699,8 +1732,8 @@
       <c r="J26" s="12"/>
     </row>
     <row r="27" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="18" t="s">
         <v>90</v>
       </c>
@@ -1723,8 +1756,8 @@
       <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="18" t="s">
         <v>96</v>
       </c>
@@ -1747,8 +1780,8 @@
       <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="18" t="s">
         <v>110</v>
       </c>
@@ -1771,8 +1804,8 @@
       <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" ht="60">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="19" t="s">
         <v>114</v>
       </c>
@@ -1795,16 +1828,16 @@
       <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="32" t="s">
         <v>64</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -1823,10 +1856,10 @@
       <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A32" s="26"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="12" t="s">
         <v>66</v>
       </c>
@@ -1839,16 +1872,18 @@
       <c r="H32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="J32" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A33" s="26"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="12" t="s">
         <v>68</v>
       </c>
@@ -1889,18 +1924,18 @@
       <c r="J35" s="12"/>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/docs/VerifPlans/Simulation/privileged_spec/CV32E40X_Counters.xlsx
+++ b/docs/VerifPlans/Simulation/privileged_spec/CV32E40X_Counters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ropeders\Documents\counters_vplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krdosvik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3740E1-6642-42F3-8BB0-1D243EAB0791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF64077-DFEB-46F2-A110-9440EE4E154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CV32E40X Counters" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="128">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -225,19 +225,7 @@
     <t>Debug Mode</t>
   </si>
   <si>
-    <t>stopcount is tied to 0 so debug mode has no effect on counters</t>
-  </si>
-  <si>
-    <t>mcycle continues during debug</t>
-  </si>
-  <si>
-    <t>minstret continues during debug</t>
-  </si>
-  <si>
     <t>Ensure that minstret is read during debug mode</t>
-  </si>
-  <si>
-    <t>hpmcounter[31-3] continues during debug</t>
   </si>
   <si>
     <t xml:space="preserve">Specific checks in the Directed Test:
@@ -463,6 +451,21 @@
   </si>
   <si>
     <t>uvm_pkg.uvm_test_top.env.cov_model.counters_covg.counters_cg.x_minstret_in_dbg</t>
+  </si>
+  <si>
+    <t>stopcount=1 stop counters when in debug mode, while if stopcount=0 the counting are not halted when in debugmode.</t>
+  </si>
+  <si>
+    <t>DT: mhpmcounter3_dcsr_stopcount.c, TODO: test hpmcounter[31-4]</t>
+  </si>
+  <si>
+    <t>hpmcounter[31-3] continues during debug if stopcount=0, and stop if stopcount=1</t>
+  </si>
+  <si>
+    <t>minstret continues during debug if stopcount=0, and stop if stopcount=1</t>
+  </si>
+  <si>
+    <t>mcycle continues during debug if stopcount=0, and stop if stopcount=1</t>
   </si>
 </sst>
 </file>
@@ -595,12 +598,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -641,52 +643,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1074,8 +1061,8 @@
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
@@ -1093,849 +1080,851 @@
     <col min="11" max="1024" width="17" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" customFormat="1" ht="30">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:10" customFormat="1" ht="45" customHeight="1">
+      <c r="A2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" ht="45" customHeight="1">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" customFormat="1" ht="42.75">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" customFormat="1" ht="42.75">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" customFormat="1" ht="42.75">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" customFormat="1" ht="42.75">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" customFormat="1" ht="142.5">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" customFormat="1" ht="71.25">
+      <c r="A13" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" customFormat="1" ht="42.75">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" customFormat="1" ht="42.75">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" customFormat="1" ht="30">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" customFormat="1" ht="57">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" customFormat="1" ht="45" customHeight="1">
+      <c r="A31" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" customFormat="1" ht="42.75">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="23" t="s">
+      <c r="J32" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" customFormat="1" ht="28.5">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="165">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="90">
-      <c r="A13" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" ht="60">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" ht="45" customHeight="1">
-      <c r="A31" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:10" s="2" customFormat="1" ht="45">
-      <c r="A32" s="28"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" ht="30">
-      <c r="A33" s="28"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="1:10" s="2" customFormat="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" s="2" customFormat="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" s="5" customFormat="1">
-      <c r="A36" s="25" t="s">
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" customFormat="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" customFormat="1">
+      <c r="A35" s="9"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" s="4" customFormat="1">
+      <c r="A36" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2010,15 +1999,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
         <v>43</v>
       </c>
     </row>

--- a/docs/VerifPlans/Simulation/privileged_spec/CV32E40X_Counters.xlsx
+++ b/docs/VerifPlans/Simulation/privileged_spec/CV32E40X_Counters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krdosvik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF64077-DFEB-46F2-A110-9440EE4E154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33611EC5-9C8F-45F9-A137-B6E8A83A1DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25095" yWindow="16080" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CV32E40X Counters" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="129">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>mcycle continues during debug if stopcount=0, and stop if stopcount=1</t>
+  </si>
+  <si>
+    <t>uvm_pkg.uvm_test_top.env.cov_model.counters_covg.counters_cg.x_check_minstret. RTC: corev_rand_arithmetic_base_test CFG=enable_counters_std , corev_rand_instr_test CFG=enable_counters_std</t>
   </si>
 </sst>
 </file>
@@ -1060,9 +1063,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
@@ -1260,7 +1263,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:10" customFormat="1" ht="42.75">
+    <row r="8" spans="1:10" customFormat="1" ht="99.75">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="22" t="s">
@@ -1282,7 +1285,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J8" s="19"/>
     </row>
